--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,11 +9507,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9520,12 +9520,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,11 +9507,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9520,12 +9520,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
+          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RECYCLING S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>13800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/12/2020</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Punahuel</t>
+          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RESITER INDUSTRIAL S.A.</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>425</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>18/12/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
+          <t>Parque Punahuel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ECOPRAB SpA</t>
+          <t>RESITER INDUSTRIAL S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3500</v>
+        <v>425</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>ECOPRAB SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>41000</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>41000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/04/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
+          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>757</v>
+        <v>57</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>13/04/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>41000</v>
+        <v>757</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Astillero Naval Dalcahue</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>41000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17/07/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
+          <t>Astillero Naval Dalcahue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>883</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14/07/2015</t>
+          <t>17/07/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>190</v>
+        <v>883</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/06/2015</t>
+          <t>14/07/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>25/05/2015</t>
+          <t>09/06/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>883</v>
+        <v>300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>25/05/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/11/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASTILLERO NAVAL DALCAHUE</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2100</v>
+        <v>883</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>24/11/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
+          <t>ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>17/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
+          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2475</v>
+        <v>63</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>18/04/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2475</v>
+        <v>2400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>750</v>
+        <v>2475</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/01/2013</t>
+          <t>12/02/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>18/01/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COSACOS GESTIÓN AMBIENTAL</t>
+          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07/11/2012</t>
+          <t>20/11/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>COSACOS GESTIÓN AMBIENTAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>240000</v>
+        <v>80</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>07/11/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>750</v>
+        <v>240000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>05/10/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
+          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
+          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico San Pedro</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RÍO ALTO S.A.</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>432000</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/07/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
+          <t>Ampliación Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>RÍO ALTO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>647</v>
+        <v>432000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>11/07/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASTILLEROS DALCAHUE</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>ASTILLEROS DALCAHUE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>31/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Parque Eólico San Pedro</t>
+          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ALBA S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100000</v>
+        <v>25</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>ALBA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>100000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
+          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/07/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>537</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>83</v>
+        <v>597</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>377</v>
+        <v>50</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>700</v>
+        <v>22</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>496</v>
+        <v>700</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/04/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,10 +4456,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Piruquina</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -4467,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañía Eléctrica Tarapacá S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>24000</v>
+        <v>496</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/02/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,40 +4504,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minicentral Hidroeléctrica Piruquina</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Eléctrica Tarapacá S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>16/02/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4558,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>28676</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>28676</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,25 +4803,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,15 +4851,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,30 +4990,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,30 +5038,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/06/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,30 +5086,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ALGEMARIN S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ALGEMARIN S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>30000</v>
+        <v>208</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>29/05/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
+          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5073</v>
+        <v>30000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
+          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,15 +5235,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>131</v>
+        <v>5073</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12/02/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>12/02/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5326,20 +5326,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,30 +5374,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,30 +5470,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
+          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SUDMARIS CHILE S.A..</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/07/2007</t>
+          <t>24/07/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,30 +5566,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>SUDMARIS CHILE S.A..</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/07/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SERGIO EDGARDO OLAVE MORALES</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,11 +5763,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERGIO EDGARDO OLAVE MORALES</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
+          <t>Centro de Cultivo Calen 2 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,11 +5811,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
+          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>134</v>
+        <v>850</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,17 +5963,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>05/12/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,17 +6107,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/08/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,20 +6190,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jaime R. Wilhelm Giovine</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jaime R. Wilhelm Giovine</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>5500</v>
+        <v>83</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>17/05/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
+          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Alimentos Multiexport S.A.</t>
+          <t>Sociedad Pesquera Landes S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>17/05/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,20 +6526,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Alimentos Multiexport S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,17 +6587,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,17 +6683,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,15 +6819,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
+          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06/01/2006</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
+          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,15 +7011,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Proa Ltda.</t>
+          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>06/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,15 +7059,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>Sociedad Proa Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
+          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,11 +7107,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
+          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,15 +7155,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>38</v>
+        <v>1500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>05/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>05/12/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>BLUE SHELL S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>38</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,20 +7294,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BLUE SHELL S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,20 +7342,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,15 +7395,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1785</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
+          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/04/2005</t>
+          <t>25/04/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
+          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,15 +7491,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>15/04/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>12/04/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,11 +7587,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>647</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,11 +7683,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>647</v>
+        <v>714</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Lodos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>75</v>
+        <v>647</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>16/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
+          <t>Planta de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
+          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>16/02/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,11 +7875,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROYECTO TAMBOR (e-seia)</t>
+          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
+          <t>PROYECTO TAMBOR (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,15 +7971,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Daniel Orlando Concha Lagos</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
+          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Daniel Orlando Concha Lagos</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
+          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Omega Limitada</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Marinos Omega Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
+          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Javier Fernando Alvarado Vidal</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>06/10/2004</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
+          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>JOSE HUGO PEREZ MUÑOZ</t>
+          <t>Javier Fernando Alvarado Vidal</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>JOSE HUGO PEREZ MUÑOZ</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Orlando Bahamonde Velasquez</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Orlando Bahamonde Velasquez</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4000</v>
+        <v>161</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>52</v>
+        <v>4000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>02/07/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/07/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Mabel Angelina Catalan Caballero</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
+          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>Mabel Angelina Catalan Caballero</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
+          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Oscar Rodolfo Quintana Cabello</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>13/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Oscar Rodolfo Quintana Cabello</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>13/01/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/11/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>24/11/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Las Vegas del Mar Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ABEL ENRIQUE PEREZ SOTO</t>
+          <t>Sociedad Las Vegas del Mar Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>08/09/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
+          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ABEL ENRIQUE PEREZ SOTO</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>21/07/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cabaret (e-seia)</t>
+          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Luis Nelson Pérez Gallardo</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>25/06/2003</t>
+          <t>21/07/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
+          <t>Cabaret (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Luis Nelson Pérez Gallardo</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>25/06/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
+          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>12/06/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
+          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>11/06/2003</t>
+          <t>12/06/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,11 +9363,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9515,17 +9515,17 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>11/06/2003</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>25/04/2003</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
+          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>25/04/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>JULIO EDUARDO MOLINA ALMONACID</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
+          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO ALARCON PUALUAN</t>
+          <t>JULIO EDUARDO MOLINA ALMONACID</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
+          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
+          <t>CESAR AUGUSTO ALARCON PUALUAN</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
+          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
+          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,11 +10035,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
+          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivos Luis Vega</t>
+          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Luis Gustvo Vega Oliva</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
+          <t>Cultivos Luis Vega</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Luis Gustvo Vega Oliva</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21/06/2002</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sombrero ( Solicitud N°200103007)</t>
+          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,11 +10227,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Juan Carlos Ojeda Muñoz</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
+          <t>Sombrero ( Solicitud N°200103007)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Juan Leonel Bahamonde Soto</t>
+          <t>Juan Carlos Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>21/06/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ensamble ( Solicitud N°200103320)</t>
+          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
+          <t>Juan Leonel Bahamonde Soto</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
+          <t>Ensamble ( Solicitud N°200103320)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,11 +10371,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
+          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
+          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Claudio Fernando Mansilla Bahamonde</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/06/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Alex Dagoberto Arenas Oyarzo</t>
+          <t>Claudio Fernando Mansilla Bahamonde</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>12/06/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
+          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
+          <t>Alex Dagoberto Arenas Oyarzo</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>10/05/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cultivos Don Carlos</t>
+          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>10/05/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
+          <t>Cultivos Don Carlos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>03/05/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>29/04/2002</t>
+          <t>03/05/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
+          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Hector Emilio Guerrero Ramirez</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>15/04/2002</t>
+          <t>29/04/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
+          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Hector Emilio Guerrero Ramirez</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>16/11/2001</t>
+          <t>15/04/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
+          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>José del Tránsito Ojeda Ojeda</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>16/11/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
+          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Antonio Alfredo Mayorga Navarro</t>
+          <t>José del Tránsito Ojeda Ojeda</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10894,30 +10894,30 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Antonio Alfredo Mayorga Navarro</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,30 +10942,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera EMAR Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
+          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>Sociedad Pesquera EMAR Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
+          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
+          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,11 +11091,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>5000</v>
+        <v>90</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
+          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
+          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Discoteque y Centro de Eventos Pulutauco</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Ojeda Ulloa</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10</v>
+        <v>840</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Dalcahue</t>
+          <t>Discoteque y Centro de Eventos Pulutauco</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Francisco Gabriel Ojeda Ulloa</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>25/08/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
+          <t>Estación de Servicio Copec Dalcahue</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>25/08/2000</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,25 +11379,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>19/04/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11422,30 +11422,30 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>19/04/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11470,20 +11470,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,43 +11508,91 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>300</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>17/12/1999</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Residuos líquidos industriales Salmones Antártica S.A. Dalcahue</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>Salmones Antártica S.A</t>
         </is>
       </c>
-      <c r="F233" t="n">
+      <c r="F234" t="n">
         <v>230</v>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>26/06/1997</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=113&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>Dalcahue</t>
         </is>

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -9267,7 +9267,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -6483,7 +6483,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CESAR AUGUSTO ALARCON PUALUAN</t>
+          <t>LIGA SpA</t>
         </is>
       </c>
       <c r="F200" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F58" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ALBA S.A.</t>
+          <t>Alba SpA.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RÍO ALTO S.A.</t>
+          <t>RÍO ALTO SpA</t>
         </is>
       </c>
       <c r="F46" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
+          <t>Declaración de Impacto Ambiental para Solicitud y Proyecto Técnico de Concesión de Acuicultura N° Pert 212103114 ubicado en Canal Dalcahue, Comuna de Dalcahue, Región de los Lagos.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RECYCLING S.A.</t>
+          <t>BLUE MAR LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13800</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>19/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159855238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
+          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RECYCLING S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>13800</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/12/2020</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Punahuel</t>
+          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RESITER INDUSTRIAL S.A.</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>425</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>18/12/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
+          <t>Parque Punahuel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ECOPRAB SpA</t>
+          <t>RESITER INDUSTRIAL S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3500</v>
+        <v>425</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>ECOPRAB SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>41000</v>
+        <v>3500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>41000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/04/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
+          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>757</v>
+        <v>57</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>13/04/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>41000</v>
+        <v>757</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Astillero Naval Dalcahue</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>41000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/07/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
+          <t>Astillero Naval Dalcahue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>883</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14/07/2015</t>
+          <t>17/07/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>190</v>
+        <v>883</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/06/2015</t>
+          <t>14/07/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/05/2015</t>
+          <t>09/06/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>883</v>
+        <v>300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>25/05/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/11/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASTILLERO NAVAL DALCAHUE</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2100</v>
+        <v>883</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>24/11/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
+          <t>ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>17/06/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
+          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2475</v>
+        <v>63</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>18/04/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2475</v>
+        <v>2400</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>750</v>
+        <v>2475</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/01/2013</t>
+          <t>12/02/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>18/01/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COSACOS GESTIÓN AMBIENTAL</t>
+          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/11/2012</t>
+          <t>20/11/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>COSACOS GESTIÓN AMBIENTAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>240000</v>
+        <v>80</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>07/11/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>750</v>
+        <v>240000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>05/10/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
+          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
+          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico San Pedro</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RÍO ALTO SpA</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>432000</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/07/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
+          <t>Ampliación Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>RÍO ALTO SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>647</v>
+        <v>432000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>11/07/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASTILLEROS DALCAHUE</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>ASTILLEROS DALCAHUE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>31/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Parque Eólico San Pedro</t>
+          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alba SpA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100000</v>
+        <v>25</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alba SpA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26</v>
+        <v>100000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
+          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/07/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>537</v>
+        <v>206</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>83</v>
+        <v>597</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>377</v>
+        <v>50</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>700</v>
+        <v>22</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>496</v>
+        <v>700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/04/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,10 +4504,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Piruquina</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -4515,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Compañía Eléctrica Tarapacá S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>24000</v>
+        <v>496</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/02/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,40 +4552,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minicentral Hidroeléctrica Piruquina</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Eléctrica Tarapacá S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>16/02/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>28676</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>28676</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,15 +4899,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,11 +4947,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,30 +5038,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,30 +5086,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/06/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5134,30 +5134,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ALGEMARIN S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ALGEMARIN S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30000</v>
+        <v>208</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>29/05/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
+          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,15 +5235,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5073</v>
+        <v>30000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
+          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,15 +5283,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>131</v>
+        <v>5073</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/02/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>12/02/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,20 +5374,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,30 +5470,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,30 +5518,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
+          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SUDMARIS CHILE S.A..</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/07/2007</t>
+          <t>24/07/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>SUDMARIS CHILE S.A..</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/07/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SERGIO EDGARDO OLAVE MORALES</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,11 +5811,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERGIO EDGARDO OLAVE MORALES</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
+          <t>Centro de Cultivo Calen 2 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
+          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>134</v>
+        <v>850</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6011,17 +6011,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>05/12/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,17 +6155,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/08/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,20 +6238,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jaime R. Wilhelm Giovine</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jaime R. Wilhelm Giovine</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5500</v>
+        <v>83</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>17/05/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
+          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Alimentos Multiexport S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>17/05/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Alimentos Multiexport S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,17 +6635,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
+          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,15 +7011,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/01/2006</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
+          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,15 +7059,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Proa Ltda.</t>
+          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>06/01/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>Sociedad Proa Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
+          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,11 +7155,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
+          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>38</v>
+        <v>1500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>05/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>05/12/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>BLUE SHELL S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>38</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,20 +7342,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BLUE SHELL S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1785</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
+          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,15 +7491,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/04/2005</t>
+          <t>25/04/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
+          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>15/04/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>12/04/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,11 +7635,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>647</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,11 +7731,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>647</v>
+        <v>714</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Lodos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>75</v>
+        <v>647</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>16/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
+          <t>Planta de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,7 +7831,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
+          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>16/02/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,11 +7923,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO TAMBOR (e-seia)</t>
+          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,11 +7971,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
+          <t>PROYECTO TAMBOR (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Daniel Orlando Concha Lagos</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
+          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Daniel Orlando Concha Lagos</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
+          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Omega Limitada</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>06/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Marinos Omega Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
+          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Javier Fernando Alvarado Vidal</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>06/10/2004</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
+          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>JOSE HUGO PEREZ MUÑOZ</t>
+          <t>Javier Fernando Alvarado Vidal</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>JOSE HUGO PEREZ MUÑOZ</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Orlando Bahamonde Velasquez</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Orlando Bahamonde Velasquez</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4000</v>
+        <v>161</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>52</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02/07/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/07/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Mabel Angelina Catalan Caballero</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
+          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>Mabel Angelina Catalan Caballero</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
+          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Oscar Rodolfo Quintana Cabello</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>13/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Oscar Rodolfo Quintana Cabello</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>13/01/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/11/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>24/11/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Las Vegas del Mar Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ABEL ENRIQUE PEREZ SOTO</t>
+          <t>Sociedad Las Vegas del Mar Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>08/09/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
+          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,15 +9171,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ABEL ENRIQUE PEREZ SOTO</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>21/07/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Cabaret (e-seia)</t>
+          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Luis Nelson Pérez Gallardo</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>25/06/2003</t>
+          <t>21/07/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
+          <t>Cabaret (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Luis Nelson Pérez Gallardo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>25/06/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
+          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>12/06/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
+          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,15 +9363,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>11/06/2003</t>
+          <t>12/06/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,11 +9411,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9563,17 +9563,17 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>11/06/2003</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AquaChile Maullín Limitada</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>25/04/2003</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
+          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>25/04/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>JULIO EDUARDO MOLINA ALMONACID</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
+          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>LIGA SpA</t>
+          <t>JULIO EDUARDO MOLINA ALMONACID</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
+          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
+          <t>LIGA SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
+          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
+          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
+          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,11 +10131,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Luis Vega</t>
+          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Luis Gustvo Vega Oliva</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
+          <t>Cultivos Luis Vega</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Luis Gustvo Vega Oliva</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>21/06/2002</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sombrero ( Solicitud N°200103007)</t>
+          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,11 +10275,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Juan Carlos Ojeda Muñoz</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
+          <t>Sombrero ( Solicitud N°200103007)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juan Leonel Bahamonde Soto</t>
+          <t>Juan Carlos Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>21/06/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ensamble ( Solicitud N°200103320)</t>
+          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
+          <t>Juan Leonel Bahamonde Soto</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
+          <t>Ensamble ( Solicitud N°200103320)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,11 +10419,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
+          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
+          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Claudio Fernando Mansilla Bahamonde</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/06/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Alex Dagoberto Arenas Oyarzo</t>
+          <t>Claudio Fernando Mansilla Bahamonde</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>12/06/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
+          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
+          <t>Alex Dagoberto Arenas Oyarzo</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>10/05/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cultivos Don Carlos</t>
+          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>10/05/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
+          <t>Cultivos Don Carlos</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>03/05/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>29/04/2002</t>
+          <t>03/05/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
+          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Hector Emilio Guerrero Ramirez</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>15/04/2002</t>
+          <t>29/04/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
+          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Hector Emilio Guerrero Ramirez</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>16/11/2001</t>
+          <t>15/04/2002</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
+          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>José del Tránsito Ojeda Ojeda</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>16/11/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
+          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Antonio Alfredo Mayorga Navarro</t>
+          <t>José del Tránsito Ojeda Ojeda</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,30 +10942,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Antonio Alfredo Mayorga Navarro</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,30 +10990,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera EMAR Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
+          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>Sociedad Pesquera EMAR Limitada</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
+          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
+          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,11 +11139,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>5000</v>
+        <v>90</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
+          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
+          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Discoteque y Centro de Eventos Pulutauco</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Ojeda Ulloa</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>840</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Dalcahue</t>
+          <t>Discoteque y Centro de Eventos Pulutauco</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Francisco Gabriel Ojeda Ulloa</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>25/08/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
+          <t>Estación de Servicio Copec Dalcahue</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>25/08/2000</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,25 +11427,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>19/04/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11470,30 +11470,30 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>19/04/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11518,20 +11518,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,43 +11556,91 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>300</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>17/12/1999</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Residuos líquidos industriales Salmones Antártica S.A. Dalcahue</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>Salmones Antártica S.A</t>
         </is>
       </c>
-      <c r="F234" t="n">
+      <c r="F235" t="n">
         <v>230</v>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>26/06/1997</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=113&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>Dalcahue</t>
         </is>

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,11 +9603,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9616,12 +9616,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,11 +9603,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9616,12 +9616,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para Solicitud y Proyecto Técnico de Concesión de Acuicultura N° Pert 212103114 ubicado en Canal Dalcahue, Comuna de Dalcahue, Región de los Lagos.</t>
+          <t>?MODIFICACION DE PROYECTO TECNICO, CENTRO CALEN 103646?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BLUE MAR LIMITADA</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159855238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
+          <t>Modificación de Proyecto Técnico, centro SAN JUAN 103406</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RECYCLING S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13800</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160290744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
+          <t>Declaración de Impacto Ambiental para Solicitud y Proyecto Técnico de Concesión de Acuicultura N° Pert 212103114 ubicado en Canal Dalcahue, Comuna de Dalcahue, Región de los Lagos.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>BLUE MAR LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159855238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
+          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>RECYCLING S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>13800</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/12/2020</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Punahuel</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RESITER INDUSTRIAL S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>425</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
+          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ECOPRAB SpA</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>18/12/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>Parque Punahuel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>RESITER INDUSTRIAL S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>41000</v>
+        <v>425</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
+          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
+          <t>ECOPRAB SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>3500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/04/2016</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>757</v>
+        <v>41000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>41000</v>
+        <v>57</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>13/04/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Astillero Naval Dalcahue</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>757</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/07/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>883</v>
+        <v>41000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/07/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
+          <t>Astillero Naval Dalcahue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>190</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/06/2015</t>
+          <t>17/07/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>883</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/05/2015</t>
+          <t>14/07/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>883</v>
+        <v>190</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>09/06/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>883</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/11/2014</t>
+          <t>25/05/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASTILLERO NAVAL DALCAHUE</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2100</v>
+        <v>883</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2100</v>
+        <v>883</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>24/11/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/06/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>17/06/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>2500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2475</v>
+        <v>400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>18/04/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/02/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>12/02/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>18/01/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COSACOS GESTIÓN AMBIENTAL</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/11/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>240000</v>
+        <v>14</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/11/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>COSACOS GESTIÓN AMBIENTAL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/10/2012</t>
+          <t>07/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>80</v>
+        <v>240000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>05/10/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
+          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
+          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico San Pedro</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RÍO ALTO SpA</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>432000</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/07/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>647</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASTILLEROS DALCAHUE</t>
+          <t>Ampliación Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>RÍO ALTO SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>432000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>11/07/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>ASTILLEROS DALCAHUE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>31/01/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>319</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>319</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
+          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Parque Eólico San Pedro</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Alba SpA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
+          <t>Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Alba SpA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>120</v>
+        <v>100000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/07/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/07/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3803,11 +3803,11 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>597</v>
+        <v>206</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>597</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>377</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/04/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>496</v>
+        <v>22</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,10 +4552,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Piruquina</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -4563,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Compañía Eléctrica Tarapacá S.A.</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>24000</v>
+        <v>700</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16/02/2009</t>
+          <t>16/04/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,14 +4648,10 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minicentral Hidroeléctrica Piruquina</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -4659,15 +4659,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Compañía Eléctrica Tarapacá S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>28676</v>
+        <v>24000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>16/02/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4715,17 +4715,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
+          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>395</v>
+        <v>28676</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,30 +5086,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
+          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,25 +5187,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ALGEMARIN S.A.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>208</v>
+        <v>600</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/05/2008</t>
+          <t>09/06/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,30 +5230,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,15 +5283,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>ALGEMARIN S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5073</v>
+        <v>208</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>29/05/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
+          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>131</v>
+        <v>30000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>12/02/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>5073</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,30 +5422,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>12/02/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/07/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SUDMARIS CHILE S.A..</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/07/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>SUDMARIS CHILE S.A..</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>155</v>
+        <v>2500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>23/07/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SERGIO EDGARDO OLAVE MORALES</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>155</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,11 +5907,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERGIO EDGARDO OLAVE MORALES</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>850</v>
+        <v>489</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
+          <t>Centro de Cultivo Calen 2 (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>134</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,25 +6147,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>05/12/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/08/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jaime R. Wilhelm Giovine</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>Jaime R. Wilhelm Giovine</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,30 +6526,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5500</v>
+        <v>80</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>17/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Alimentos Multiexport S.A.</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5500</v>
+        <v>83</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>17/05/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Alimentos Multiexport S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,12 +6910,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
+          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Proa Ltda.</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
+          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,15 +7155,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>06/01/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Sociedad Proa Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
+          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>05/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
+          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>38</v>
+        <v>1500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>BLUE SHELL S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>6000</v>
+        <v>38</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>05/12/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,20 +7390,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>BLUE SHELL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>6000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,20 +7486,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/04/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
+          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>15/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
+          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>596</v>
+        <v>1785</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>25/04/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
+          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>15/04/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>12/04/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,11 +7731,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Lodos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>75</v>
+        <v>714</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>16/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>27</v>
+        <v>647</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>16/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
+          <t>Planta de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>16/02/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
+          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,15 +7971,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>16/02/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROYECTO TAMBOR (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,11 +8019,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
+          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Daniel Orlando Concha Lagos</t>
+          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
+          <t>PROYECTO TAMBOR (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
+          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Daniel Orlando Concha Lagos</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Omega Limitada</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
+          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>Cultivos Marinos Omega Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,15 +8403,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Javier Fernando Alvarado Vidal</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>06/10/2004</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>JOSE HUGO PEREZ MUÑOZ</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>06/10/2004</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
+          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>Javier Fernando Alvarado Vidal</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Orlando Bahamonde Velasquez</t>
+          <t>JOSE HUGO PEREZ MUÑOZ</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4000</v>
+        <v>204</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
+          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Orlando Bahamonde Velasquez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>78</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>02/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
+          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Mabel Angelina Catalan Caballero</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>02/07/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
+          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oscar Rodolfo Quintana Cabello</t>
+          <t>Mabel Angelina Catalan Caballero</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/01/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
+          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Oscar Rodolfo Quintana Cabello</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>13/01/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,15 +9027,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/11/2003</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Las Vegas del Mar Ltda.</t>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3500</v>
+        <v>32</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/09/2003</t>
+          <t>24/11/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ABEL ENRIQUE PEREZ SOTO</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Sociedad Las Vegas del Mar Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>46</v>
+        <v>3500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>21/07/2003</t>
+          <t>08/09/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cabaret (e-seia)</t>
+          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Luis Nelson Pérez Gallardo</t>
+          <t>ABEL ENRIQUE PEREZ SOTO</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/06/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
+          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>21/07/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
+          <t>Cabaret (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,25 +9363,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Luis Nelson Pérez Gallardo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>12/06/2003</t>
+          <t>25/06/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
+          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>11/06/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>11/06/2003</t>
+          <t>12/06/2003</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,11 +9507,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,21 +9607,21 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>11/06/2003</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,21 +9655,21 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>11/06/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AquaChile Maullín Limitada</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>25/04/2003</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
+          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>25/04/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>JULIO EDUARDO MOLINA ALMONACID</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>LIGA SpA</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
+          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
+          <t>JULIO EDUARDO MOLINA ALMONACID</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
+          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>LIGA SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
+          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
+          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,11 +10179,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Luis Vega</t>
+          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Luis Gustvo Vega Oliva</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
+          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>21/06/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sombrero ( Solicitud N°200103007)</t>
+          <t>Cultivos Luis Vega</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juan Carlos Ojeda Muñoz</t>
+          <t>Luis Gustvo Vega Oliva</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21/06/2002</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
+          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Juan Leonel Bahamonde Soto</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>21/06/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ensamble ( Solicitud N°200103320)</t>
+          <t>Sombrero ( Solicitud N°200103007)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
+          <t>Juan Carlos Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>21/06/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
+          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
+          <t>Juan Leonel Bahamonde Soto</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
+          <t>Ensamble ( Solicitud N°200103320)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Claudio Fernando Mansilla Bahamonde</t>
+          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12/06/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
+          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Alex Dagoberto Arenas Oyarzo</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
+          <t>Claudio Fernando Mansilla Bahamonde</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>10/05/2002</t>
+          <t>12/06/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Cultivos Don Carlos</t>
+          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>Alex Dagoberto Arenas Oyarzo</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
+          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>03/05/2002</t>
+          <t>10/05/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
+          <t>Cultivos Don Carlos</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>29/04/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Hector Emilio Guerrero Ramirez</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>15/04/2002</t>
+          <t>03/05/2002</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
+          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>16/11/2001</t>
+          <t>29/04/2002</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
+          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,7 +10899,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>José del Tránsito Ojeda Ojeda</t>
+          <t>Hector Emilio Guerrero Ramirez</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>15/04/2002</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
+          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Antonio Alfredo Mayorga Navarro</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>16/11/2001</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,30 +10990,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>José del Tránsito Ojeda Ojeda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
+          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera EMAR Limitada</t>
+          <t>Antonio Alfredo Mayorga Navarro</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,30 +11086,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
+          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Sociedad Pesquera EMAR Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
+          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
+          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
+          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>840</v>
+        <v>5000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Discoteque y Centro de Eventos Pulutauco</t>
+          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Ojeda Ulloa</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Dalcahue</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>230</v>
+        <v>840</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>25/08/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
+          <t>Discoteque y Centro de Eventos Pulutauco</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Francisco Gabriel Ojeda Ulloa</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
+          <t>Estación de Servicio Copec Dalcahue</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,25 +11475,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>19/04/2000</t>
+          <t>25/08/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11518,20 +11518,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,25 +11571,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>19/04/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,43 +11604,139 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>110</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>14/02/2000</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>300</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>17/12/1999</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Residuos líquidos industriales Salmones Antártica S.A. Dalcahue</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>Salmones Antártica S.A</t>
         </is>
       </c>
-      <c r="F235" t="n">
+      <c r="F237" t="n">
         <v>230</v>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>26/06/1997</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=113&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>Dalcahue</t>
         </is>

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,11 +9699,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?MODIFICACION DE PROYECTO TECNICO, CENTRO CALEN 103646?</t>
+          <t>Modificación de Proyecto Técnico, centro SAN JUAN 103406</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160290744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro SAN JUAN 103406</t>
+          <t>?MODIFICACION DE PROYECTO TECNICO, CENTRO CALEN 103646?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160290744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, centro SAN JUAN 103406</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160290744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>?MODIFICACION DE PROYECTO TECNICO, CENTRO CALEN 103646?</t>
+          <t>Modificación de Proyecto Técnico, centro SAN JUAN 103406</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160290744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental para Solicitud y Proyecto Técnico de Concesión de Acuicultura N° Pert 212103114 ubicado en Canal Dalcahue, Comuna de Dalcahue, Región de los Lagos.</t>
+          <t>?MODIFICACION DE PROYECTO TECNICO, CENTRO CALEN 103646?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BLUE MAR LIMITADA</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/08/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159855238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
+          <t>Declaración de Impacto Ambiental para Solicitud y Proyecto Técnico de Concesión de Acuicultura N° Pert 212103114 ubicado en Canal Dalcahue, Comuna de Dalcahue, Región de los Lagos.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RECYCLING S.A.</t>
+          <t>BLUE MAR LIMITADA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13800</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159855238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
+          <t>CENTRO DE VALORIZACIÓN INTEGRAL ECOCAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RECYCLING S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>13800</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO. CENTRO DE CULTIVO DE SALMÓNIDOS, CALEN 1. CÓDIGO DE CENTRO N° 100591</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/12/2020</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150678709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Punahuel</t>
+          <t>Modernización y Aumento de Producción en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RESITER INDUSTRIAL S.A.</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>425</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>18/12/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149212772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
+          <t>Parque Punahuel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ECOPRAB SpA</t>
+          <t>RESITER INDUSTRIAL S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3500</v>
+        <v>425</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146011035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>PLANTA DE RECONVERSIÓN Y APROVECHAMIENTO DE BIOMASA ECOPRAB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>ECOPRAB SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>41000</v>
+        <v>3500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144211350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>57</v>
+        <v>41000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/04/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131493548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
+          <t>ASTILLERO BAHAMONDE Y CIA. LTDA.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>JOSE LEOPOLDO BAHAMONDE BARRIA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>757</v>
+        <v>57</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28/12/2015</t>
+          <t>13/04/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131313650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUR DE PUNTA SAN JUAN, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGION (SOL Nº 214103003)"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>41000</v>
+        <v>757</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>28/12/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131006434&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Astillero Naval Dalcahue</t>
+          <t>Línea Transmisión 220 kV Chiloé - Gamboa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>41000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17/07/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131008688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
+          <t>Astillero Naval Dalcahue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>883</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14/07/2015</t>
+          <t>17/07/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130554842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, PASO TENAUN SUR, PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 213103046)"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>190</v>
+        <v>883</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/06/2015</t>
+          <t>14/07/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130603839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE (N° 214103024)"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25/05/2015</t>
+          <t>09/06/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130527842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, SECTOR DE QUETALCO, COMUNA DE DALCAHUE (SOL Nº 213103044)"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
+          <t>Cultivos Marinos Sánchez y Torrealba Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>883</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/12/2014</t>
+          <t>25/05/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130479639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN AL SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103015)"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/11/2014</t>
+          <t>02/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130010319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASTILLERO NAVAL DALCAHUE</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, EN SECTOR PASO TENAUN SUROESTE PUNTA SAN JUAN, DALCAHUE (N° 214103014)"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>SOCIEDAD DE CULTIVOS CROSAM LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2100</v>
+        <v>883</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2014</t>
+          <t>24/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129991259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
+          <t>ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>22/08/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129698354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>PROYECTO ASTILLERO NAVAL DALCAHUE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129478881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128547952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inversiones Tutuquen Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos (RILes) Taller de Redes de Inversiones Tutuquén Ltda.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Tutuquen Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>17/06/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8262765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
+          <t>Centro de Cultivo de Mitílidos Quiquel, al Sureste de Punta Chocomo N° 209103026 0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>PEDRO EDUARDO CÁRDENAS VILLARROEL</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/04/2013</t>
+          <t>25/04/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8097844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos CHILESAN S. A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2475</v>
+        <v>63</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>18/04/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>DIA "Ampliación Biomasa Centro de Engorda de Salmonideos En Canal Tac, Sector Bajo Dugoab, Isla Tac" N° Pert 212103134 Ampliación Biomasa Centro de Engorda Canal Tac</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2475</v>
+        <v>2400</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7976537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>750</v>
+        <v>2475</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/01/2013</t>
+          <t>12/02/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7859990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL CENTRO CULTIVO SALMONIDEOS ISLA QUENAC, ENTRE MAYAHUE Y PUNILCO N° PERT 204103053</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/12/2012</t>
+          <t>18/01/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7770145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR OESTE PUNTA SAN JUAN, COMUNA DE DALCAHUE (SOL Nº 212103055)"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA CHOCOMO, COMUNA DE DALCAHUE (SOL Nº 212103056)"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2012</t>
+          <t>18/12/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7646945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COSACOS GESTIÓN AMBIENTAL</t>
+          <t>Modificación del Manejo de la Mortalidad Mediante Sistema de Ensilaje en Piscicultura Quillaico</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/11/2012</t>
+          <t>20/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichihué</t>
+          <t>COSACOS GESTIÓN AMBIENTAL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>240000</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>07/11/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7503944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CULTIVO DE ABALONES QUETALCO</t>
+          <t>Parque Eólico Pichihué</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>750</v>
+        <v>240000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7487365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
+          <t>CULTIVO DE ABALONES QUETALCO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorge Ballesteros Díaz</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/09/2012</t>
+          <t>05/10/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7390212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
+          <t>COSACOS SANEAMIENTO AMBIENTAL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Jorge Ballesteros Díaz</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>20/09/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7355556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
+          <t>"Manejo de Mortalidad mediante un sistema de ensilaje en centro de Cutivos San Javier código de centro 100638, San Javier, Dalcahue, Xa Región".</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AQUACHILE S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7187800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 1, X REGION" Nº de Ingreso a Trámite: 211103112 (Código del Centro: 102007) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 2, X REGION" Nº de Ingreso a Trámite: 211103115 (Código del Centro: 102008) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 3, X REGION" Nº de Ingreso a Trámite: 211103114 (Código del Centro: 102009) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Parque Eólico San Pedro</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS TEGUEL 4, X REGION" Nº de Ingreso a Trámite: 211103113 (Código del Centro: 102010) AQUACHILE S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RÍO ALTO SpA</t>
+          <t>AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>432000</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/07/2012</t>
+          <t>12/07/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7122397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
+          <t>Ampliación Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>RÍO ALTO SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>647</v>
+        <v>432000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/05/2012</t>
+          <t>11/07/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7111600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASTILLEROS DALCAHUE</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA TEJEL, COMUNA DE DALCAHUE (SOL Nº 212103054)"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>30/05/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6947181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>ASTILLEROS DALCAHUE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Sociedad de Transportes Marítimos Esparza Hernandez y Compañía Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6884097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Noreste Punta Tenaun - Trusal S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>31/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6534581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Modificación del proyecto de acuicultura del centro de cultivo de salmónidos Calen 1. Comuna de Dalcahue, Decima Región N° Pert 211103049</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>29/12/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441418&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
+          <t>Sistema de tratamiento de mortalidad mediante ensilaje Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>120</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
+          <t>Línea de Alta Tensión S/E San Pedro - S/E Chiloé</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5599909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tenaun, código 100.977</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5553390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Parque Eólico San Pedro</t>
+          <t>MODIFICACION DE MANEJO DE MORTALIDAD CON SISTEMA DE ENSILAJE EN CENTRO DE CULTIVO QUIQUEL II - X REGIÓN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alba SpA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100000</v>
+        <v>25</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5501515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>Parque Eólico San Pedro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alba SpA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>100000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5031150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5029558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Astilleros</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/10/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5000156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTERO SAN JUAN, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103093)"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>04/10/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
+          <t>Modificación Manejo de Mortalidades con Sistema de Ensilaje Centro de Cultivo Quetalco - X Región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4954247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
+          <t>Manejo de Mortalidad mediante un Sistema de Ensilaje en Centro de Cultivo de Salmones Calen 1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4875088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, AL OESTE DE PUNTA SAN JUAN COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 206103015)"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>HECTOR MARIANO SANCHEZ MARAMBIO</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/07/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>537</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL DALCAHUE, ENTRE PUNTA TEGUEL Y ESTERO TEGUEL, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 207103250)"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
+          <t>"CULTIVO DE MITILIDOS, EN SECTOR SUR PUNTA QUIQUEL, COMUNA DE DALCAHUE (SOL Nº 208103110)"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>83</v>
+        <v>597</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4672172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Centro de Cultivo Calen 2; Modificación al Manejo de Mortalidad usando el Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4511487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Piscicultura Río Claro; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4524805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4267415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
+          <t>Cosecha con acopio temporal en tierra e incorporación de sistema de desinfección a la planta de tratamiento de RILes, Centro de Faenamiento primario Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Aquagen Chile S.A.</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4198752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Implementación Sistema de Ensilaje de Mortalidad, Piscicultura Tocoihue, Cultivos Marinos Chiloé S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Aquagen Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>377</v>
+        <v>50</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CHILESAN S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>700</v>
+        <v>22</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+          <t>CENTRO DE CULTIVO PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>CHILESAN S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>496</v>
+        <v>700</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>16/04/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3688982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,10 +4648,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Piruquina</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Plan de Cierre y Sellado Vertedero Municipal de Dalcahue (e-seia)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -4659,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Compañía Eléctrica Tarapacá S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>24000</v>
+        <v>496</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16/02/2009</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3645605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,40 +4696,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minicentral Hidroeléctrica Piruquina</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Eléctrica Tarapacá S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>16/02/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3557148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>28676</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Modificación de producción Centro de Cultivo Automar Chiloé, código centro 102708 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>28676</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Traslado línea AT 110 kV para el nuevo aeródromo de la Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3343299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,11 +5091,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5147,17 +5147,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5182,30 +5182,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Centro de Cultivo Punta Chocomo (Nº Pert 208103088) (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5230,30 +5230,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/06/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2958428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5278,30 +5278,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ALGEMARIN S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS Nº SOLICITUD 204103280, SECTOR PUNTA CHOCOMO, COMUNA DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ALGEMARIN S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>30000</v>
+        <v>208</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/05/2008</t>
+          <t>29/05/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
+          <t>Proyecto Nuevo Aeródromo Isla De Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5073</v>
+        <v>30000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>14/05/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
+          <t>Construcción Planta de Proceso Moluscos de la Empresa Conservas Dalcahue S.A. Sector Punta Buñocoihue, Canal Dalcahue, Xa Región (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>131</v>
+        <v>5073</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>12/02/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2819238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo de Mitílidos Teguel Código Centro 102817 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>12/02/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULVOS MARINOS CHILOE LTDA (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,30 +5566,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION SISTEMA DE TRATAMIENTO DE RILES PROYECTO"CENTRO DE MATANZA Y EMISARIO SUBMARINO EN CANAL DALCAHUE, CULTIVOS MARINOS CHILOE LTDA" (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cultivos Marinos Chiloé S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>07/09/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2349037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
+          <t>Regularización de Zanjas de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SUDMARIS CHILE S.A..</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2500</v>
+        <v>60</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/07/2007</t>
+          <t>24/07/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2276911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA SUDMARIS CHILE S.A. DALCAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>SUDMARIS CHILE S.A..</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/07/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 1, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco 2, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SERGIO EDGARDO OLAVE MORALES</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>489</v>
+        <v>155</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>28/06/2007</t>
+          <t>29/06/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Calen 2 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS, OSTREIDOS Y PICTINIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE (SOL Nº 206103322)" (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,11 +5955,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERGIO EDGARDO OLAVE MORALES</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2221500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
+          <t>Centro de Cultivo Calen 2 (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
+          <t>CES y Abalones, Ampliación de Producción de salmones, "Canal Quicaví, al Noreste de Pta. Tenaún, Pert Nº 207103061 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Audilio Osvaldo Galindo Oyarzo</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>134</v>
+        <v>850</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>28/06/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2230911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos y abalones en la concesión de Osvaldo Galindo Oyarzo, Quíquel, Comuna de DalcahueNº de Pert 96103339 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Audilio Osvaldo Galindo Oyarzo</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,17 +6155,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>MODIFICACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y PUNTO DE DESCARGA DE EMISARIO SUBMARINO (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>05/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841385&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/08/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Estero Teguel, Comuna de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,20 +6382,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector II (Pert. N° 206103121 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jaime R. Wilhelm Giovine</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>14/07/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1570778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Centro de cultivo de salmones Ensenada Quiquel Sector I pert 206103122 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,30 +6526,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Jaime R. Wilhelm Giovine</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,30 +6574,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA QUETALCO Nº SOL. 98103080 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5500</v>
+        <v>83</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/05/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1490639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
+          <t>"AMPLIACIÓN PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE, SOCIEDAD HUIMAR LTDA." (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Alimentos Multiexport S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/05/2006</t>
+          <t>17/05/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Proceso de Mitilidos Alimentos Multiexport (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Alimentos Multiexport S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>08/05/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1430396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,17 +6779,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,30 +6958,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmonídeos Calen 2 Comuna Dalcahue, Provincia de Chiloé, X Región( Código Centro 102342) (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,15 +7011,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>28/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Quiquel Pert Nº 202103144 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Ensenada Quiquel, Pert 202103143 (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Conservas Dalcahue S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
+          <t>Regularización de Sistema de Pretratamiento e Instalación de Emisario Submarino para la Disposición de Riles Fuera de la Zona de Protección Litoral, de la Empresa Conservas Dalcahue S.A. en Canal Dalcahue, Xª Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,15 +7155,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
+          <t>Sociedad Conservas Dalcahue S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/01/2006</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1240648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
+          <t>Centro de Cultivo de Pelillo sector estero de Tocoihue, comuna de Dalcahue, provincia de Chiloé, décima región de Los Lagos 0 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Proa Ltda.</t>
+          <t>Sindicato de trabajadores Independientes de la Pesca Artesanal Paz y Progreso</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>06/01/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1186661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO CONGELADOS DEL SU S.A., DALCAHUE, DECIMA REGION 0 (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Dalcahue</t>
+          <t>Sociedad Proa Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1178478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
+          <t>Plan Regulador Comunal de Dalcahue (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,11 +7299,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Ilustre Municipalidad de Dalcahue</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1147524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
+          <t>Centro Engorda Salmones y Abalones, NE Pta. Tenaún, Pert Nº 203103129 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>38</v>
+        <v>1500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>05/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº SOLICITUD 203103225 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>05/12/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA PELU Nº SOLICITUD 203103224 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>BLUE SHELL S.A.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>6000</v>
+        <v>38</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>07/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1140917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTALPLANTA DE PROCESO DE MITILIDOS, BLUE SHELL S.A., SECTOR TEJEL, COMUNA DE DALCAHUE, CHILOE X REGION. 0 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,20 +7486,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BLUE SHELL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>07/11/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,20 +7534,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>17/05/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
+          <t>Centro Cultivo Mitílidos Punta Calen. Pert 201103147 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ABICK S.A</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1785</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>25/04/2005</t>
+          <t>17/05/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=847613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
+          <t>Centro de Matanza y Emisario Submarino en Canal Dalcahue, Cultivos Marinos Chiloé Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
+          <t>ABICK S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>15/04/2005</t>
+          <t>25/04/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=665032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
+          <t>AUMENTO DE PRODUCCIÓN PISCICULTURA QUILLAICO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>RUPERTO HERNAN CERNA ROSALES</t>
+          <t>COMPAÑIA SALMONIFERA DALCAHUE LIMITADA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/04/2005</t>
+          <t>15/04/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=655834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PUNTA CHOCOMO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 200103069)" (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>RUPERTO HERNAN CERNA ROSALES</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/03/2005</t>
+          <t>12/04/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=652883&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
+          <t>AMPLIACIÓN CENTRO DE CULTIVO DE SALMONÍDEOS CALEN 2. Pert Nº201103148 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,11 +7779,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>647</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=631976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUIQUEL, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103085)" (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,7 +7831,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE QUETALCO (PUNTA SAN JUAN), COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 99103086)" (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,11 +7875,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>647</v>
+        <v>714</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632374&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Lodos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO, COMUNA DE DALCAHUE, PROVINCIA DE CHILOE(Sol. Nº 99103087)" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Agrícola Corcovado Ltda.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>75</v>
+        <v>647</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/02/2005</t>
+          <t>21/03/2005</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=632422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
+          <t>Planta de Disposición Final de Lodos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
+          <t>Centro de Acopio Intermedio de Residuos Peligrosos, Corcovado (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>Agrícola Corcovado Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/01/2005</t>
+          <t>16/02/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=607729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUETALCO COMUNA DE DALCAHUE, PROVINCIA DE CHILOE (Sol. Nº 201103219)" (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROYECTO TAMBOR (e-seia)</t>
+          <t>PROYECTO MONTE QUIQUEL (Pert Nº 202103044) (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,11 +8115,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>RAMIRO DEL CARMEN BARRIA BORQUEZ</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
+          <t>PROYECTO TAMBOR (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Daniel Orlando Concha Lagos</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>31/01/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=585586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
+          <t>Mitilidos Sector Sur Punta San Juan (Nº Sol. 202103068) (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Daniel Orlando Concha Lagos</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>29/10/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=520977&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA QUIQUEL Nº PERT:201103248 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=491909&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
+          <t>CULTIVO MARINOS PUNTA QUIQUEL 1 NºPERT: 98103102 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Omega Limitada</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/10/2004</t>
+          <t>29/10/2004</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=492060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103156 SECTOR ESTE PUNTA CHOCOMO (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Marinos Omega Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
+          <t>CENTRO DE M ITILIDOS N° PERT 202103151 SECTOR PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=469937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
+          <t>CENTRO DE MITILIDOS SAN JUAN, CANAL DALCAHUE PERT 202103061 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CROSAM LTDA.</t>
+          <t>Cultivos Acuícolas y Servicios Transmatty Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS N° PERT 202103152 SECTOR SUROESTE PUNTA SAN JUAN (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,15 +8499,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Javier Fernando Alvarado Vidal</t>
+          <t>CROSAM LTDA.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>06/10/2004</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=470259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
+          <t>Centro de Cultivos de Pelillo de Ensenada de Pullao, Canal de Dalcahue, Nº pert 97103198 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>JOSE HUGO PEREZ MUÑOZ</t>
+          <t>Javier Fernando Alvarado Vidal</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=465703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
+          <t>CULTIVOS MARINOS CALEN Nº 201103249 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>RAMON AUGUSTO CARO DIAZ</t>
+          <t>JOSE HUGO PEREZ MUÑOZ</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=450409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA CHOCOMO Nº 202103099 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Orlando Bahamonde Velasquez</t>
+          <t>RAMON AUGUSTO CARO DIAZ</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=448498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>Centro de Cultivo Extensivo, Sector Punta Calen, San Juan, Comuna de Dalcahue, Isla Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>Orlando Bahamonde Velasquez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>161</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Oyarzún Gómez</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>52</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
+          <t>CULTIVOS MARINOS SAN JUAN Nº PERT: 99103200 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Heriberto Rodrigo Oyarzún Gómez</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>02/07/2004</t>
+          <t>20/07/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=404563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>PROYECTO CANDADO, PERT N° 202103124 (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/07/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Mabel Angelina Catalan Caballero</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
+          <t>Cultivos San Juan en Dalcahue" Sol. N° 201103203 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR LIMITADA</t>
+          <t>Mabel Angelina Catalan Caballero</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=385717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
+          <t>PROYECTO MARTILLO Nº PERT 200103292 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oscar Rodolfo Quintana Cabello</t>
+          <t>PRODUCTOS DEL MAR LIMITADA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>13/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
+          <t>Centro de Cultivo de Mitilidos, Sector Calen, Sur Estero Tocoihue, Comuna de Dalcahue, X Región, N° Pert. 201103131 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Oscar Rodolfo Quintana Cabello</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/01/2004</t>
+          <t>13/01/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR PULLAO ,DALCAHUE (97103220) (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,15 +9075,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/01/2004</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=226585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
+          <t>Construcción Sendero Río Colecole-Río Curi Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>24/11/2003</t>
+          <t>07/01/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Modificacion sistema de tratamiento de riles y emisario submarino planta de proceso de recursos hidrobiológicos, Dalcahue, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>24/11/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad Las Vegas del Mar Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>08/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR ASTILLEROS, DALCAHUE, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,15 +9267,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ABEL ENRIQUE PEREZ SOTO</t>
+          <t>Sociedad Las Vegas del Mar Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>30</v>
+        <v>3500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>08/09/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=143988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
+          <t>EL MAGO, PERT Nº 201103029 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,15 +9315,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ABEL ENRIQUE PEREZ SOTO</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/07/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cabaret (e-seia)</t>
+          <t>Instalación de Sistema de Tratamiento y Emisario Submarino para las Disposiciones de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,25 +9363,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Luis Nelson Pérez Gallardo</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/06/2003</t>
+          <t>21/07/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=116760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
+          <t>Cabaret (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,25 +9411,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AquaChile S.A.</t>
+          <t>Luis Nelson Pérez Gallardo</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>25/06/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
+          <t>Centro Cultivo Salmonideos Quiquel 2 (N°Sol. 202103143) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/06/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
+          <t>Mitilicultura Calen (N° Sol. 201103137) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>11/06/2003</t>
+          <t>12/06/2003</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>PROYECTO EL AMARILLO, PERT 99103209 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,11 +9555,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=93383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centro de Cultivo Mitílidos Canal Dalcahue 3 (N°Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>02/06/2003</t>
+          <t>11/06/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AquaChile Maullín Limitada</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>25/04/2003</t>
+          <t>02/06/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
+          <t>Centro Cultivo de Salmones Quiquel (N°Sol. 202103144) (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>25/04/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Sur Punta Quiquel (N° Sol. 200103087) (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Canal Dalcahue (N° Sol. 200103091) (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>JULIO EDUARDO MOLINA ALMONACID</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
+          <t>El Duque Nº Sol. 201103129 (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>LIGA SpA</t>
+          <t>JULIO EDUARDO MOLINA ALMONACID</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
+          <t>El Amauta Nº Sol. 201103128 (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
+          <t>LIGA SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>10/09/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
+          <t>Centro Marino Mar del Sur ( Solicitud N°200103042)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Heriberto Rodrigo Bahamondes Bahamondes</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>10/09/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
+          <t>Cultivos Marinos Quetalco 1 ( Solicitud N°98103078)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,11 +10227,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
+          <t>Cultivos Marinos Quetalco 2 ( Solicitud N°98103079)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,11 +10275,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>LANDES MUSSELS S.A</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Cultivos Luis Vega</t>
+          <t>Cultivos Marinos San Juan 1 ( Solicitud N°99103199)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Luis Gustvo Vega Oliva</t>
+          <t>LANDES MUSSELS S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/07/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
+          <t>Cultivos Luis Vega</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
+          <t>Luis Gustvo Vega Oliva</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21/06/2002</t>
+          <t>12/07/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Sombrero ( Solicitud N°200103007)</t>
+          <t>Cultivos Marinos Punta San Juan (Solicitud N°96103133)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,11 +10419,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Juan Carlos Ojeda Muñoz</t>
+          <t>HECTOR ALCIDES BAHAMONDE BAHAMONDE</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
+          <t>Sombrero ( Solicitud N°200103007)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Juan Leonel Bahamonde Soto</t>
+          <t>Juan Carlos Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>18/06/2002</t>
+          <t>21/06/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ensamble ( Solicitud N°200103320)</t>
+          <t>Cultivos Marinos Quetalco ( Solicitud N°98103114)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
+          <t>Juan Leonel Bahamonde Soto</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/06/2002</t>
+          <t>18/06/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
+          <t>Ensamble ( Solicitud N°200103320)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,11 +10563,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
+          <t>RIGOBERTO FRANCISCO VARNET BARRIENTOS</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
+          <t>Todos Juntos Cultivo de Moluscos en Dalcahue ( Solicitud N°200103251)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Claudio Fernando Mansilla Bahamonde</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales de Dalcahue</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>12/06/2002</t>
+          <t>14/06/2002</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°99103220)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Alex Dagoberto Arenas Oyarzo</t>
+          <t>Claudio Fernando Mansilla Bahamonde</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>12/06/2002</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
+          <t>Arenas Cultivo de Moluscos en Quetalco ( Solicitud N°98103138)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
+          <t>Alex Dagoberto Arenas Oyarzo</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>10/05/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Cultivos Don Carlos</t>
+          <t>Cultivos de Moluscos Molina ( Solicitud N°99103175)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CARLOS MOLINA GUTIERREZ</t>
+          <t>SERGIO OSVALDO MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>08/05/2002</t>
+          <t>10/05/2002</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
+          <t>Cultivos Don Carlos</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Victor Armando Ojeda Muñoz</t>
+          <t>CARLOS MOLINA GUTIERREZ</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>03/05/2002</t>
+          <t>08/05/2002</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
+          <t>Cultivos Marinos Punta Tegel ( Solicitud N°200103041)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
+          <t>Victor Armando Ojeda Muñoz</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>29/04/2002</t>
+          <t>03/05/2002</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
+          <t>Cultivo de Moluscos Aguas Azules ( Solicitud N°200103250)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Hector Emilio Guerrero Ramirez</t>
+          <t>MARIA ANGELA OJEDA BUSTAMANTE</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>15/04/2002</t>
+          <t>29/04/2002</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
+          <t>Cultivos Marinos Guerrero (Solicitud N°96103196)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Hector Emilio Guerrero Ramirez</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>16/11/2001</t>
+          <t>15/04/2002</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
+          <t>Centro de Cultivo Automar Chiloe N° Pert 98103122</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>José del Tránsito Ojeda Ojeda</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>16/11/2001</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
+          <t>Cultivos Marinos Tegel N° Pert 96103296</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Antonio Alfredo Mayorga Navarro</t>
+          <t>José del Tránsito Ojeda Ojeda</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Concesión de Acuicultura Mayorga Navarro Tegel Dalcahue Comuna de Dalcahue N° 96103342</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11086,30 +11086,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Antonio Alfredo Mayorga Navarro</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11134,30 +11134,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera EMAR Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>03/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
+          <t>Planta Transformadora de Erizos ( Loxechinus Albus) Isla Chaulinec Chiloé</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>Sociedad Pesquera EMAR Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>03/08/2001</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
+          <t>Mejoramiento Planta de Tratamiento y Disposición Final de Efluentes Industriales (Procesadora Hueñocoihue)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
+          <t>Estanques y Surtidores de Combustibles en Muelle Artesanal de Dalcahue Esso Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,11 +11283,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>5000</v>
+        <v>90</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
+          <t>Planta de Proceso de Salmones Antártica SA Dalcahue</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
+          <t>Centro de Cultivo de Salmones Quetalco Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Discoteque y Centro de Eventos Pulutauco</t>
+          <t>Tratamiento y Disposición Final de las Aguas Servidas de Dalcahue</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Francisco Gabriel Ojeda Ulloa</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>840</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>09/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3579&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estación de Servicio Copec Dalcahue</t>
+          <t>Discoteque y Centro de Eventos Pulutauco</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Francisco Gabriel Ojeda Ulloa</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>25/08/2000</t>
+          <t>09/11/2000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
+          <t>Estación de Servicio Copec Dalcahue</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,15 +11523,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>25/08/2000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en Punta Chocomo Quetalco</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,25 +11571,25 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue Ltda.</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>19/04/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción Emisario Submarino para la Disposición Final de Efluentes Industriales</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11614,30 +11614,30 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Procesadora Hueñocoihue Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>19/04/2000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2805&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11662,20 +11662,20 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>17/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,43 +11700,91 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos y Emisario Submarino de la Planta de Proceso de Recursos Hidrobiológicos de Dalcahue Décima Región</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial e Industrial Agromar Ltda</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>300</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>17/12/1999</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2535&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Residuos líquidos industriales Salmones Antártica S.A. Dalcahue</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>Salmones Antártica S.A</t>
         </is>
       </c>
-      <c r="F237" t="n">
+      <c r="F238" t="n">
         <v>230</v>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>26/06/1997</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=113&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>Dalcahue</t>
         </is>

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">

--- a/data/Dalcahue.xlsx
+++ b/data/Dalcahue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MANUEL FACUNDO PEREZ URIBE</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA QUIQUEL, CANAL DALCAHUE, COMUNA DE DALCAHUE, X REGIÓN (SOL Nº 208103111)"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>MANUEL FACUNDO PEREZ URIBE</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4705432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,11 +9747,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juan Orlando Vera Macías</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 3 (N° Sol. 200103090) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Quetalco (N° Sol. 200103095) (e-seia)</t>
+          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Centros de Cultivo de Mitílidos Canal Dalcahue 2 (N°Sol. 200103089) (e-seia)</t>
+          <t>Cultivos Marinos Bahía Quetalco, (N° Sol. 99103036) (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Juan Orlando Vera Macías</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=90935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=91047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
